--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value2980.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value2980.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.195663680527934</v>
+        <v>1.732128977775574</v>
       </c>
       <c r="B1">
-        <v>2.510702812416735</v>
+        <v>2.589139699935913</v>
       </c>
       <c r="C1">
-        <v>-1</v>
+        <v>2.740685939788818</v>
       </c>
       <c r="D1">
-        <v>2.256912697785429</v>
+        <v>3.09007453918457</v>
       </c>
       <c r="E1">
-        <v>1.185927618000746</v>
+        <v>3.353185892105103</v>
       </c>
     </row>
   </sheetData>
